--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\0obriano0\Documents\GitHub\combination1234\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2322A3D5-42D3-49E6-8250-7D5FB9960C68}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{D3854CB0-BA1E-44CF-9E30-A2A4C1887F1D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{2BA1C592-0926-42DA-A92C-F1D4ACF7D611}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>進入點B</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,23 +35,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>num1=red</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num1-2=yellow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>總數</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>num1+3=blue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>(num1+1)*2 = green</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -62,12 +46,101 @@
     <t>B陣列(系統判定值)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>執行續執行狀態</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>num1-2=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFFF00"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yellow</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>num1=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>red</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>num1+3=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>blue</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">(num1+1)*2 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>green</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(num1+1)*2+1=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="新細明體"/>
+        <family val="1"/>
+        <charset val="136"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>orange</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -92,8 +165,56 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFF00"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B0F0"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFC000"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +245,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="23">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -231,29 +370,258 @@
     </border>
     <border>
       <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -268,143 +636,7 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -421,101 +653,128 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -832,115 +1091,147 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37C77BF5-6DB7-4A3C-A713-0F8D3BB2DA40}">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="13.125" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="28.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:14" ht="22.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="2" t="s">
+      <c r="C2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="27"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>3</v>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="26"/>
+    </row>
+    <row r="4" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="26"/>
+    </row>
+    <row r="5" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="30" t="s">
+        <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>2</v>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="36"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="33" t="s">
+        <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="20"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="35"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="16"/>
-    </row>
-    <row r="4" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="18"/>
-    </row>
-    <row r="5" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="13"/>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="N7" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="I1:M1"/>
     <mergeCell ref="A5:M5"/>
+    <mergeCell ref="A6:N6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
